--- a/data/trans_orig/P14B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5672BEFC-2566-4A41-992A-7BD11BF1B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3009799-2769-441B-901E-DB228D169BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4B10861-4A15-4341-9DCA-5500F2326EAC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26C98886-52E9-46CB-9AC1-1D5169197065}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="377">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>21,71%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>78,29%</t>
   </si>
   <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>68,48%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,31 +142,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,44%</t>
+    <t>32,03%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>66,56%</t>
+    <t>67,97%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -175,19 +175,19 @@
     <t>49,29%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>42,01%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>65,37%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>34,63%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,49 +253,49 @@
     <t>82,02%</t>
   </si>
   <si>
-    <t>32,73%</t>
+    <t>36,48%</t>
   </si>
   <si>
     <t>54,95%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>67,27%</t>
+    <t>63,52%</t>
   </si>
   <si>
     <t>45,05%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -319,10 +319,10 @@
     <t>60,07%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>61,53%</t>
@@ -343,10 +343,10 @@
     <t>39,93%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -355,10 +355,10 @@
     <t>70,5%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>70,11%</t>
@@ -373,19 +373,19 @@
     <t>70,29%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
   </si>
   <si>
     <t>29,89%</t>
@@ -400,64 +400,64 @@
     <t>29,71%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
   </si>
   <si>
     <t>58,07%</t>
   </si>
   <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -469,730 +469,706 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
+    <t>47,22%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>52,78%</t>
   </si>
   <si>
     <t>38,18%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
     <t>61,43%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD34D818-F99D-45E0-BC63-3B0D5C1509FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94779D51-FBA3-4218-AF74-2ED9E2A991C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2823,7 +2799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25298CD7-329F-4C8E-910A-51C52252622D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B7953-5C3F-4708-8B4E-6B1336B700F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2980,10 +2956,10 @@
         <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +2974,13 @@
         <v>13445</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3013,13 +2989,13 @@
         <v>12586</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -3028,13 +3004,13 @@
         <v>26030</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3078,13 @@
         <v>6114</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3120,10 +3096,10 @@
         <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3132,13 +3108,13 @@
         <v>16463</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3129,13 @@
         <v>9901</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3171,10 +3147,10 @@
         <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -3183,13 +3159,13 @@
         <v>20859</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3233,13 @@
         <v>3628</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3272,13 +3248,13 @@
         <v>14359</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3287,13 +3263,13 @@
         <v>17987</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3284,13 @@
         <v>8836</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3323,13 +3299,13 @@
         <v>8511</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3338,13 +3314,13 @@
         <v>17348</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3388,10 @@
         <v>5063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>43</v>
@@ -3427,13 +3403,13 @@
         <v>11125</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3442,13 +3418,13 @@
         <v>16188</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3439,13 @@
         <v>3125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3478,13 +3454,13 @@
         <v>10501</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -3493,13 +3469,13 @@
         <v>13626</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3543,13 @@
         <v>8983</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3582,13 +3558,13 @@
         <v>10840</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3597,13 +3573,13 @@
         <v>19822</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3594,13 @@
         <v>3284</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3633,13 +3609,13 @@
         <v>8756</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3648,13 +3624,13 @@
         <v>12040</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3698,13 @@
         <v>16410</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3737,13 +3713,13 @@
         <v>29244</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -3752,13 +3728,13 @@
         <v>45655</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3749,13 @@
         <v>4402</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3788,13 +3764,13 @@
         <v>5165</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3803,13 +3779,13 @@
         <v>9566</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3853,13 @@
         <v>43192</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3892,13 +3868,13 @@
         <v>84682</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -3907,13 +3883,13 @@
         <v>127874</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3904,13 @@
         <v>42993</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -3943,13 +3919,13 @@
         <v>56476</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>97</v>
@@ -3958,13 +3934,13 @@
         <v>99469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5CFD7-77AD-4B9B-9225-1483EE845766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23882A38-ECD7-4282-90FE-0C4B8D2EAA91}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4059,7 +4035,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4166,13 +4142,13 @@
         <v>9779</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4181,13 +4157,13 @@
         <v>2783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4196,13 +4172,13 @@
         <v>12562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4193,13 @@
         <v>10170</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4232,10 +4208,10 @@
         <v>5440</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>43</v>
@@ -4247,13 +4223,13 @@
         <v>15610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4297,13 @@
         <v>9449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4336,13 +4312,13 @@
         <v>6543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4351,13 +4327,13 @@
         <v>15992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4348,13 @@
         <v>20099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4387,13 +4363,13 @@
         <v>27472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -4402,13 +4378,13 @@
         <v>47570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4452,13 @@
         <v>4842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4491,13 +4467,13 @@
         <v>11437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4506,13 +4482,13 @@
         <v>16279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4503,13 @@
         <v>17234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4542,13 +4518,13 @@
         <v>15591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4557,13 +4533,13 @@
         <v>32825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4607,13 @@
         <v>6616</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4646,13 +4622,13 @@
         <v>17945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4661,13 +4637,13 @@
         <v>24561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4658,13 @@
         <v>14309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4697,13 +4673,13 @@
         <v>23620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4712,13 +4688,13 @@
         <v>37929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4762,13 @@
         <v>7746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4801,13 +4777,13 @@
         <v>10196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4816,13 +4792,13 @@
         <v>17942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4813,13 @@
         <v>8658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4852,13 +4828,13 @@
         <v>17430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -4867,13 +4843,13 @@
         <v>26088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4917,13 @@
         <v>12884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -4956,13 +4932,13 @@
         <v>22728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>184</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4971,13 +4947,13 @@
         <v>35612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4968,13 @@
         <v>8207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -5007,13 +4983,13 @@
         <v>27583</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -5022,13 +4998,13 @@
         <v>35790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5072,13 @@
         <v>51316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -5111,13 +5087,13 @@
         <v>71631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>157</v>
@@ -5126,13 +5102,13 @@
         <v>122947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5123,13 @@
         <v>78677</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>157</v>
@@ -5162,13 +5138,13 @@
         <v>117135</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -5177,13 +5153,13 @@
         <v>195812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3009799-2769-441B-901E-DB228D169BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C463BE9-AD06-4CD8-8374-744DE07D7E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{26C98886-52E9-46CB-9AC1-1D5169197065}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F98CEE41-A2CE-413D-BF9F-812C6FCD6137}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="379">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>21,71%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>31,52%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>78,29%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
   </si>
   <si>
     <t>68,48%</t>
   </si>
   <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -142,31 +142,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,03%</t>
+    <t>37,07%</t>
   </si>
   <si>
     <t>50,71%</t>
   </si>
   <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>34,15%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>67,97%</t>
+    <t>62,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -175,19 +175,19 @@
     <t>49,29%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>65,85%</t>
   </si>
   <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>42,01%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>65,37%</t>
   </si>
   <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>57,27%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>34,63%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
   </si>
   <si>
     <t>42,73%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -259,19 +259,19 @@
     <t>54,95%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>17,98%</t>
@@ -283,19 +283,19 @@
     <t>45,05%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,19 +310,19 @@
     <t>68,62%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>60,07%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>61,53%</t>
@@ -334,19 +334,19 @@
     <t>31,38%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>39,93%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -355,762 +355,774 @@
     <t>70,5%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>29,71%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>58,07%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población cuyo asma le limita en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
     <t>47,22%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>52,78%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
     <t>41,2%</t>
   </si>
   <si>
@@ -1138,9 +1150,6 @@
     <t>38,57%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -1166,9 +1175,6 @@
   </si>
   <si>
     <t>55,59%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94779D51-FBA3-4218-AF74-2ED9E2A991C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B5D76C-2E37-430F-B0DB-2D635548E2C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2799,7 +2805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B7953-5C3F-4708-8B4E-6B1336B700F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC0780F-B81E-4F2C-A078-B53DABFD8572}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2956,10 +2962,10 @@
         <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2980,13 @@
         <v>13445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -2989,13 +2995,13 @@
         <v>12586</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>26</v>
@@ -3004,13 +3010,13 @@
         <v>26030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3084,13 @@
         <v>6114</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3096,10 +3102,10 @@
         <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3108,13 +3114,13 @@
         <v>16463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3135,13 @@
         <v>9901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3147,10 +3153,10 @@
         <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -3159,13 +3165,13 @@
         <v>20859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3239,13 @@
         <v>3628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3248,13 +3254,13 @@
         <v>14359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3263,13 +3269,13 @@
         <v>17987</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3290,13 @@
         <v>8836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -3299,13 +3305,13 @@
         <v>8511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -3314,13 +3320,13 @@
         <v>17348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3394,13 @@
         <v>5063</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3403,13 +3409,13 @@
         <v>11125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3418,13 +3424,13 @@
         <v>16188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3445,13 @@
         <v>3125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>10</v>
@@ -3454,13 +3460,13 @@
         <v>10501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -3469,13 +3475,13 @@
         <v>13626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3549,13 @@
         <v>8983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3558,13 +3564,13 @@
         <v>10840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3573,13 +3579,13 @@
         <v>19822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3600,13 @@
         <v>3284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3609,13 +3615,13 @@
         <v>8756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3624,13 +3630,13 @@
         <v>12040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3704,13 @@
         <v>16410</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3713,13 +3719,13 @@
         <v>29244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -3728,13 +3734,13 @@
         <v>45655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3755,13 @@
         <v>4402</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3764,13 +3770,13 @@
         <v>5165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3779,13 +3785,13 @@
         <v>9566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3859,13 @@
         <v>43192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -3868,13 +3874,13 @@
         <v>84682</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -3883,13 +3889,13 @@
         <v>127874</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3910,13 @@
         <v>42993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -3919,13 +3925,13 @@
         <v>56476</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M23" s="7">
         <v>97</v>
@@ -3934,13 +3940,13 @@
         <v>99469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23882A38-ECD7-4282-90FE-0C4B8D2EAA91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C341083-FD3A-4775-BF29-00942CE081B9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,7 +4041,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4142,13 +4148,13 @@
         <v>9779</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4157,13 +4163,13 @@
         <v>2783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4172,13 +4178,13 @@
         <v>12562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4199,13 @@
         <v>10170</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4208,10 +4214,10 @@
         <v>5440</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>43</v>
@@ -4223,13 +4229,13 @@
         <v>15610</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4303,13 @@
         <v>9449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4312,13 +4318,13 @@
         <v>6543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4327,13 +4333,13 @@
         <v>15992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4354,13 @@
         <v>20099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -4363,13 +4369,13 @@
         <v>27472</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -4378,13 +4384,13 @@
         <v>47570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4458,13 @@
         <v>4842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -4467,13 +4473,13 @@
         <v>11437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4482,13 +4488,13 @@
         <v>16279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4509,13 @@
         <v>17234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4518,13 +4524,13 @@
         <v>15591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4533,13 +4539,13 @@
         <v>32825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4613,13 @@
         <v>6616</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4622,13 +4628,13 @@
         <v>17945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4637,13 +4643,13 @@
         <v>24561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4664,13 @@
         <v>14309</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -4673,13 +4679,13 @@
         <v>23620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4688,13 +4694,13 @@
         <v>37929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4768,13 @@
         <v>7746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4777,13 +4783,13 @@
         <v>10196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -4792,13 +4798,13 @@
         <v>17942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4819,13 @@
         <v>8658</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4828,13 +4834,13 @@
         <v>17430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>37</v>
@@ -4843,13 +4849,13 @@
         <v>26088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4923,13 @@
         <v>12884</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -4932,13 +4938,13 @@
         <v>22728</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4947,13 +4953,13 @@
         <v>35612</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,13 +4974,13 @@
         <v>8207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -4983,13 +4989,13 @@
         <v>27583</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -4998,13 +5004,13 @@
         <v>35790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5078,13 @@
         <v>51316</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>109</v>
@@ -5087,13 +5093,13 @@
         <v>71631</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>157</v>
@@ -5102,13 +5108,13 @@
         <v>122947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5129,13 @@
         <v>78677</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>157</v>
@@ -5138,13 +5144,13 @@
         <v>117135</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -5153,13 +5159,13 @@
         <v>195812</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
